--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1975.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1975.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.357297334778559</v>
+        <v>0.3005427420139313</v>
       </c>
       <c r="B1">
-        <v>2.78908915970889</v>
+        <v>2.519969940185547</v>
       </c>
       <c r="C1">
-        <v>10.00672040316844</v>
+        <v>8.512056350708008</v>
       </c>
       <c r="D1">
-        <v>1.989795796848757</v>
+        <v>2.002977132797241</v>
       </c>
       <c r="E1">
-        <v>1.030838634849622</v>
+        <v>1.16081964969635</v>
       </c>
     </row>
   </sheetData>
